--- a/data/GSE.xlsx
+++ b/data/GSE.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -410,12 +440,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Graduate standing. Recommended: MATH 206, MATH 244, or MATH 408.</t>
+          <t>Graduate standing.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SU</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MATH 206, MATH 244, or MATH 408.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SU </t>
         </is>
       </c>
     </row>
@@ -432,10 +477,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Concurrent enrollment in GSE 510 and graduate standing.</t>
+          <t>Concurrent enrollment in GSE 510 and graduate standing.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -454,10 +514,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GSE 511 and graduate standing.</t>
+          <t>GSE 511 and graduate standing.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -476,12 +551,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Graduate standing. Recommended: MATH 206 or MATH 244 or GSE 510.</t>
+          <t>Graduate standing.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SU</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>MATH 206 or MATH 244 or GSE 510.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SU </t>
         </is>
       </c>
     </row>
@@ -498,12 +588,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GSE 518 and graduate standing. Recommended: ECON 339.</t>
+          <t>GSE 518 and graduate standing.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ECON 339.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -520,10 +625,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GSE 520 and graduate standing.</t>
+          <t>GSE 520 and graduate standing.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -547,6 +667,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -564,12 +699,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GSE 520 and graduate standing. Recommended: GSE 524.</t>
+          <t>GSE 520 and graduate standing.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>GSE 524.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -586,10 +736,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GSE 511 and graduate standing.</t>
+          <t>GSE 511 and graduate standing.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -608,10 +773,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GSE 511 and graduate standing.</t>
+          <t>GSE 511 and graduate standing.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -630,10 +810,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GSE 511 and graduate standing.</t>
+          <t>GSE 511 and graduate standing.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -652,10 +847,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GSE 511 and graduate standing.</t>
+          <t>GSE 511 and graduate standing.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -674,12 +884,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>GSE 522 and graduate standing, or consent of instructor. Recommended: GSE 526.</t>
+          <t>GSE 522 and graduate standing, or consent of instructor.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>GSE 526.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -696,12 +921,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GSE 520 and graduate standing. Recommended: GSE 524 and GSE 526.</t>
+          <t>GSE 520 and graduate standing.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>GSE 524 and GSE 526.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -723,6 +963,21 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -745,6 +1000,21 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -766,6 +1036,21 @@
         </is>
       </c>
       <c r="D19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
